--- a/documentation/3_1_Modele_Journal_Romain.xlsx
+++ b/documentation/3_1_Modele_Journal_Romain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-KR\Explorations-de-galeries-speleologiques\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68842E4-8FC6-41C3-8D8F-C9B090C85A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28DBC62-E118-4A87-805D-E1D5903E3946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="19">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>J'ai eus des soucis a comprendre comment la lib fonctionnais ca ma pris du temps a tous bien mettre en place tester des bouts de code avant de vraiment rentrer dans l'implémentation de ma tache.</t>
+  </si>
+  <si>
+    <t>Finir l'implémentation de la connection et deconnection entre notre programme et le Wireless Vint Hub</t>
+  </si>
+  <si>
+    <t>Implémentation des fonctionalité lie aux capteurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai eus remarquer que les tread et les paterne de programation comme observeur observer ou encore listener ne sont pas non plus ultra claire ca qui ma retarder sur l’implementation capteur mais sinon ce projet me motive et c'est donc pas un soucis de rester bloquer un petit moment et de devoir chercher pour comprendre comment faire la tache </t>
   </si>
 </sst>
 </file>
@@ -429,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -478,10 +487,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -518,10 +523,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -532,6 +533,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -570,8 +579,16 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1999,9 +2016,9 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2052,7 +2069,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="32" t="s">
@@ -2064,39 +2081,39 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2109,45 +2126,55 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="13">
+        <v>46006</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -2156,47 +2183,49 @@
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2209,43 +2238,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2258,43 +2287,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -2307,43 +2336,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -2356,43 +2385,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -2405,43 +2434,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2454,43 +2483,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2503,43 +2532,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2552,43 +2581,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2601,10 +2630,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -2614,53 +2643,51 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="A62:A68"/>
     <mergeCell ref="B62:C62"/>
@@ -2677,38 +2704,40 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="95" priority="23" operator="containsText" text="Terminé">
@@ -2880,37 +2909,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2923,43 +2952,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -2972,43 +3001,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3021,43 +3050,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3070,43 +3099,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -3119,43 +3148,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -3168,43 +3197,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -3217,43 +3246,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -3266,43 +3295,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -3315,43 +3344,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -3364,43 +3393,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -3413,10 +3442,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -3430,15 +3459,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3450,77 +3550,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="Terminé">
@@ -3692,37 +3721,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -3735,43 +3764,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3784,43 +3813,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3833,43 +3862,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3882,43 +3911,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -3931,43 +3960,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -3980,43 +4009,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4029,43 +4058,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4078,43 +4107,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -4127,43 +4156,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -4176,43 +4205,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -4225,10 +4254,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -4242,15 +4271,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -4262,77 +4362,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
@@ -4504,37 +4533,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -4547,43 +4576,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4596,43 +4625,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -4645,43 +4674,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -4694,43 +4723,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4743,43 +4772,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4792,43 +4821,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4841,43 +4870,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4890,43 +4919,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -4939,43 +4968,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -4988,43 +5017,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -5037,10 +5066,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -5054,15 +5083,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -5074,77 +5174,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -5259,26 +5288,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5491,10 +5500,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5513,20 +5553,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/3_1_Modele_Journal_Romain.xlsx
+++ b/documentation/3_1_Modele_Journal_Romain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-KR\Explorations-de-galeries-speleologiques\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28DBC62-E118-4A87-805D-E1D5903E3946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D804C13-6F0D-4CE7-80EE-20AB2768B0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="24">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -142,6 +142,21 @@
   </si>
   <si>
     <t xml:space="preserve">J'ai eus remarquer que les tread et les paterne de programation comme observeur observer ou encore listener ne sont pas non plus ultra claire ca qui ma retarder sur l’implementation capteur mais sinon ce projet me motive et c'est donc pas un soucis de rester bloquer un petit moment et de devoir chercher pour comprendre comment faire la tache </t>
+  </si>
+  <si>
+    <t>Début du projet analyse et conception</t>
+  </si>
+  <si>
+    <t>Début du module mise en route du projet Analyse et conception</t>
+  </si>
+  <si>
+    <t>Je suis motiver part le projet qui a l'air vraiment intérésent (PS: Ecrit apres coup le 16.12.25 je me souviens  plus en detail )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation </t>
+  </si>
+  <si>
+    <t>Entretien avec le client</t>
   </si>
 </sst>
 </file>
@@ -438,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -487,6 +502,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -523,6 +542,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -533,14 +556,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -579,23 +594,59 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="100">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2016,9 +2067,9 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2069,51 +2120,43 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>11</v>
+      <c r="A6" s="36">
+        <v>45992</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="8">
-        <v>1.5</v>
-      </c>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="8">
-        <v>1.5</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2122,59 +2165,55 @@
       </c>
       <c r="D11" s="9">
         <f>SUM(D6:D10)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>45993</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
-        <v>46006</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="7">
-        <v>3</v>
-      </c>
-    </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="8">
-        <v>5</v>
-      </c>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -2183,49 +2222,63 @@
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="8"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2234,47 +2287,59 @@
       </c>
       <c r="D25" s="9">
         <f>SUM(D20:D24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="14">
+        <v>46006</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="8"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2283,47 +2348,59 @@
       </c>
       <c r="D32" s="9">
         <f>SUM(D27:D31)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="14">
+        <v>46007</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="8"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -2332,47 +2409,47 @@
       </c>
       <c r="D39" s="9">
         <f>SUM(D34:D38)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -2385,43 +2462,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -2434,43 +2511,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2483,43 +2560,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2532,43 +2609,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2581,43 +2658,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2630,10 +2707,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -2643,19 +2720,85 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:C13"/>
@@ -2672,167 +2815,101 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="95" priority="23" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="99" priority="27" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="98" priority="28" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="93" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="97" priority="25" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="96" priority="26" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D39">
+    <cfRule type="containsText" dxfId="91" priority="21" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="22" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:D46">
+    <cfRule type="containsText" dxfId="89" priority="13" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="14" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D53">
+    <cfRule type="containsText" dxfId="87" priority="11" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="12" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:D60">
+    <cfRule type="containsText" dxfId="85" priority="9" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="10" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D67">
+    <cfRule type="containsText" dxfId="83" priority="19" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="20" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69:D74">
+    <cfRule type="containsText" dxfId="81" priority="17" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="18" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D76:D81">
+    <cfRule type="containsText" dxfId="79" priority="15" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="16" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83">
+    <cfRule type="containsText" dxfId="77" priority="5" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="6" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="91" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D32">
-    <cfRule type="containsText" dxfId="89" priority="19" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="20" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="87" priority="17" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="18" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D46">
-    <cfRule type="containsText" dxfId="85" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D53">
-    <cfRule type="containsText" dxfId="83" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D60">
-    <cfRule type="containsText" dxfId="81" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:D67">
-    <cfRule type="containsText" dxfId="79" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D74">
-    <cfRule type="containsText" dxfId="77" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D76:D81">
-    <cfRule type="containsText" dxfId="75" priority="11" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="12" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="containsText" dxfId="73" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2909,37 +2986,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2952,43 +3029,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3001,43 +3078,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3050,43 +3127,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3099,43 +3176,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -3148,43 +3225,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -3197,43 +3274,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -3246,43 +3323,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -3295,43 +3372,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -3344,43 +3421,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -3393,43 +3470,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -3442,10 +3519,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -3459,86 +3536,15 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3550,100 +3556,171 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="75" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="74" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="69" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="73" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="72" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="67" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="70" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D32">
-    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="69" priority="19" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="20" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="68" priority="20" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="63" priority="17" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="67" priority="17" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="18" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="66" priority="18" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D46">
-    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="65" priority="9" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="10" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="64" priority="10" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D53">
-    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="63" priority="7" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="62" priority="8" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D60">
-    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D67">
-    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="59" priority="15" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="16" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="58" priority="16" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:D74">
-    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="57" priority="13" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="14" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="56" priority="14" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:D81">
-    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="12" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="54" priority="12" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3721,37 +3798,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -3764,43 +3841,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3813,43 +3890,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3862,43 +3939,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3911,43 +3988,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -3960,43 +4037,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4009,43 +4086,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4058,43 +4135,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4107,43 +4184,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -4156,43 +4233,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -4205,43 +4282,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -4254,10 +4331,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -4271,86 +4348,15 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -4362,100 +4368,171 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="51" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="50" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="45" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="49" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="48" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="46" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D32">
-    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="45" priority="19" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="20" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="44" priority="20" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="39" priority="17" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="43" priority="17" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="18" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="42" priority="18" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D46">
-    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="10" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="40" priority="10" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D53">
-    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="8" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="38" priority="8" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D60">
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D67">
-    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="35" priority="15" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="34" priority="16" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:D74">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:D81">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="30" priority="12" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4533,37 +4610,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -4576,43 +4653,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4625,43 +4702,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -4674,43 +4751,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -4723,43 +4800,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4772,43 +4849,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4821,43 +4898,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4870,43 +4947,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4919,43 +4996,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -4968,43 +5045,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -5017,43 +5094,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -5066,10 +5143,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -5083,86 +5160,15 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -5174,100 +5180,171 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D32">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D46">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D53">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D60">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D67">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:D74">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:D81">
-    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5288,6 +5365,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5500,41 +5597,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5553,9 +5619,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/3_1_Modele_Journal_Romain.xlsx
+++ b/documentation/3_1_Modele_Journal_Romain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-KR\Explorations-de-galeries-speleologiques\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D804C13-6F0D-4CE7-80EE-20AB2768B0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D724FB4-9305-44E4-A8BF-C25E40B83574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="30">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Finir l'implémentation de la connection et deconnection entre notre programme et le Wireless Vint Hub</t>
   </si>
   <si>
-    <t>Implémentation des fonctionalité lie aux capteurs</t>
-  </si>
-  <si>
     <t xml:space="preserve">J'ai eus remarquer que les tread et les paterne de programation comme observeur observer ou encore listener ne sont pas non plus ultra claire ca qui ma retarder sur l’implementation capteur mais sinon ce projet me motive et c'est donc pas un soucis de rester bloquer un petit moment et de devoir chercher pour comprendre comment faire la tache </t>
   </si>
   <si>
@@ -157,6 +154,27 @@
   </si>
   <si>
     <t>Entretien avec le client</t>
+  </si>
+  <si>
+    <t>Reprise en main du projet réinstalation &amp; configurations du materiel (rover) manque batterie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction avec maxime des soucis de comprehension de certaine tache </t>
+  </si>
+  <si>
+    <t>Implémentation des fonctionalité du sonar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continuation d'implémentation du sonar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation des fonctionalité implémenter </t>
+  </si>
+  <si>
+    <t>Debut de l'implémentation de la vue IHM dans l'app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continuation d'implémentation de la vue IHM et différent element </t>
   </si>
 </sst>
 </file>
@@ -502,11 +520,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -514,11 +528,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -542,10 +556,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -556,6 +566,22 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -578,14 +604,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -594,59 +612,15 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="96">
     <dxf>
       <font>
         <strike val="0"/>
@@ -2066,10 +2040,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36:C36"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2082,12 +2056,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -2100,63 +2074,63 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
+      <c r="A6" s="13">
         <v>45992</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="33"/>
+      <c r="B6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="16"/>
       <c r="D6" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2169,51 +2143,51 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="25">
         <v>45993</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="17"/>
+      <c r="B13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="28"/>
       <c r="D13" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -2226,59 +2200,59 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2291,55 +2265,55 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
+      <c r="A27" s="25">
         <v>46006</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="18"/>
       <c r="D28" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2352,55 +2326,55 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14">
+      <c r="A34" s="25">
         <v>46007</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="17"/>
+      <c r="B34" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="28"/>
       <c r="D34" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="18"/>
       <c r="D35" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -2413,43 +2387,65 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="25">
+        <v>46027</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="8"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="8"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="8"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="8"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -2458,47 +2454,53 @@
       </c>
       <c r="D46" s="9">
         <f>SUM(D41:D45)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="7"/>
+      <c r="A48" s="25">
+        <v>46028</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -2507,47 +2509,47 @@
       </c>
       <c r="D53" s="9">
         <f>SUM(D48:D52)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2560,43 +2562,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="28"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2609,43 +2611,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="28"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2658,43 +2660,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="26"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="28"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2707,10 +2709,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -2720,53 +2722,51 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="A62:A68"/>
     <mergeCell ref="B62:C62"/>
@@ -2783,133 +2783,135 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="99" priority="27" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="95" priority="27" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="28" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="94" priority="28" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="97" priority="25" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="93" priority="25" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="26" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="92" priority="26" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D25">
+    <cfRule type="containsText" dxfId="91" priority="3" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="4" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D32">
+    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="91" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="87" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="86" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D46">
-    <cfRule type="containsText" dxfId="89" priority="13" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="85" priority="13" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="14" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="84" priority="14" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D53">
-    <cfRule type="containsText" dxfId="87" priority="11" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="83" priority="11" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="12" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="82" priority="12" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D60">
-    <cfRule type="containsText" dxfId="85" priority="9" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="81" priority="9" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="10" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="80" priority="10" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D67">
-    <cfRule type="containsText" dxfId="83" priority="19" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="79" priority="19" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="20" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="78" priority="20" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:D74">
-    <cfRule type="containsText" dxfId="81" priority="17" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="77" priority="17" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="18" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="76" priority="18" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:D81">
-    <cfRule type="containsText" dxfId="79" priority="15" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="75" priority="15" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="16" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="74" priority="16" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="containsText" dxfId="77" priority="5" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="6" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D32">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2948,12 +2950,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -2966,57 +2968,57 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -3029,43 +3031,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3078,43 +3080,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3127,43 +3129,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3176,43 +3178,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -3225,43 +3227,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -3274,43 +3276,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -3323,43 +3325,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -3372,43 +3374,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="28"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -3421,43 +3423,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="28"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -3470,43 +3472,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="26"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="28"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -3519,10 +3521,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -3536,15 +3538,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3556,171 +3629,100 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="75" priority="23" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="70" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="73" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="69" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="68" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="67" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="66" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D32">
-    <cfRule type="containsText" dxfId="69" priority="19" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="20" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="64" priority="20" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="67" priority="17" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="63" priority="17" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="18" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="62" priority="18" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D46">
-    <cfRule type="containsText" dxfId="65" priority="9" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="10" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="60" priority="10" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D53">
-    <cfRule type="containsText" dxfId="63" priority="7" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="8" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D60">
-    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D67">
-    <cfRule type="containsText" dxfId="59" priority="15" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="16" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="54" priority="16" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:D74">
-    <cfRule type="containsText" dxfId="57" priority="13" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="14" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="52" priority="14" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:D81">
-    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="12" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="50" priority="12" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="48" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3760,12 +3762,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -3778,57 +3780,57 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -3841,43 +3843,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3890,43 +3892,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3939,43 +3941,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3988,43 +3990,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4037,43 +4039,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4086,43 +4088,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4135,43 +4137,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4184,43 +4186,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="28"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -4233,43 +4235,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="28"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -4282,43 +4284,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="26"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="28"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -4331,10 +4333,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -4348,15 +4350,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -4368,171 +4441,100 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="51" priority="23" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="46" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="49" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="45" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D32">
-    <cfRule type="containsText" dxfId="45" priority="19" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="20" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="40" priority="20" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="43" priority="17" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="39" priority="17" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="18" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="38" priority="18" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D46">
-    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="10" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="36" priority="10" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D53">
-    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="8" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="34" priority="8" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D60">
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D67">
-    <cfRule type="containsText" dxfId="35" priority="15" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="16" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:D74">
-    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:D81">
-    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="12" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4572,12 +4574,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -4590,57 +4592,57 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -4653,43 +4655,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4702,43 +4704,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -4751,43 +4753,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -4800,43 +4802,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4849,43 +4851,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4898,43 +4900,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4947,43 +4949,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4996,43 +4998,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="28"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -5045,43 +5047,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="28"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -5094,43 +5096,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="26"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="28"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -5143,10 +5145,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -5160,15 +5162,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -5180,171 +5253,100 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D32">
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D46">
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D53">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D60">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D67">
-    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:D74">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:D81">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5365,26 +5367,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5597,10 +5579,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5619,20 +5632,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/3_1_Modele_Journal_Romain.xlsx
+++ b/documentation/3_1_Modele_Journal_Romain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-KR\Explorations-de-galeries-speleologiques\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D724FB4-9305-44E4-A8BF-C25E40B83574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCD0596-74F0-48A5-B26F-7DA5E6FC145F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="33">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t xml:space="preserve">continuation d'implémentation de la vue IHM et différent element </t>
+  </si>
+  <si>
+    <t xml:space="preserve">concption et implémentation de l'amélioration du sonar/radar </t>
+  </si>
+  <si>
+    <t>presentation</t>
+  </si>
+  <si>
+    <t>finalisation pofinement du projet</t>
   </si>
 </sst>
 </file>
@@ -520,7 +529,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -528,11 +541,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -556,32 +569,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -604,6 +593,14 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -612,8 +609,20 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2040,10 +2049,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2056,81 +2065,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="33">
         <v>45992</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2143,51 +2152,51 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
+      <c r="A13" s="14">
         <v>45993</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -2200,59 +2209,59 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2265,55 +2274,55 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
+      <c r="A27" s="14">
         <v>46006</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2326,55 +2335,55 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="19" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25">
+      <c r="A34" s="14">
         <v>46007</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="28"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -2387,65 +2396,65 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25">
+      <c r="A41" s="14">
         <v>46027</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="28"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17" t="s">
+      <c r="A42" s="15"/>
+      <c r="B42" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17" t="s">
+      <c r="A43" s="15"/>
+      <c r="B43" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17" t="s">
+      <c r="A45" s="15"/>
+      <c r="B45" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -2458,49 +2467,49 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="26"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25">
+      <c r="A48" s="14">
         <v>46028</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="28"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -2513,43 +2522,49 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="26"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="36"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="7"/>
+      <c r="A55" s="14">
+        <v>46035</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="17"/>
+      <c r="D55" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2558,47 +2573,57 @@
       </c>
       <c r="D60" s="9">
         <f>SUM(D55:D59)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="26"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="36"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="7"/>
+      <c r="A62" s="14">
+        <v>46036</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="17"/>
+      <c r="D62" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="8"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2607,47 +2632,47 @@
       </c>
       <c r="D67" s="9">
         <f>SUM(D62:D66)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="28"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2660,43 +2685,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="26"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="36"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="28"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2709,10 +2734,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="26"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="36"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -2722,19 +2747,85 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:C13"/>
@@ -2751,72 +2842,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="95" priority="27" operator="containsText" text="Terminé">
@@ -2950,75 +2975,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -3031,43 +3056,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3080,43 +3105,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3129,43 +3154,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3178,43 +3203,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -3227,43 +3252,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="28"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -3276,43 +3301,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="26"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="28"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -3325,43 +3350,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="26"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="36"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="28"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -3374,43 +3399,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="26"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="36"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="28"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -3423,43 +3448,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="28"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -3472,43 +3497,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="26"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="36"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="28"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -3521,10 +3546,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="26"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="36"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -3538,86 +3563,15 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3629,6 +3583,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="Terminé">
@@ -3762,75 +3787,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -3843,43 +3868,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3892,43 +3917,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3941,43 +3966,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3990,43 +4015,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4039,43 +4064,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="28"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4088,43 +4113,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="26"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="28"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4137,43 +4162,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="26"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="36"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="28"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4186,43 +4211,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="26"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="36"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="28"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -4235,43 +4260,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="28"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -4284,43 +4309,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="26"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="36"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="28"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -4333,10 +4358,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="26"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="36"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -4350,86 +4375,15 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -4441,6 +4395,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
@@ -4574,75 +4599,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -4655,43 +4680,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4704,43 +4729,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -4753,43 +4778,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -4802,43 +4827,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4851,43 +4876,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="28"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4900,43 +4925,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="26"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="28"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4949,43 +4974,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="26"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="36"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="28"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4998,43 +5023,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="26"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="36"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="28"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -5047,43 +5072,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="28"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -5096,43 +5121,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="26"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="36"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="28"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -5145,10 +5170,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="26"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="36"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -5162,86 +5187,15 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -5253,6 +5207,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -5367,6 +5392,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5579,41 +5624,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5632,9 +5646,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>